--- a/NformTester/NformTester/Keywordscripts/600.10.10.30_DeviceMaintenanceLayoutAndDefaults.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.10.30_DeviceMaintenanceLayoutAndDefaults.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7803" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7803" uniqueCount="875">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3923,6 +3923,10 @@
   </si>
   <si>
     <t>;Clear configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4446,7 +4450,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4574,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>838</v>
+        <v>874</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>254</v>

--- a/NformTester/NformTester/Keywordscripts/600.10.10.30_DeviceMaintenanceLayoutAndDefaults.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.10.30_DeviceMaintenanceLayoutAndDefaults.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7803" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7805" uniqueCount="877">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3862,10 +3862,6 @@
   </si>
   <si>
     <t>$SNMP_device_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3928,6 +3924,17 @@
   <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4085,7 +4092,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4096,8 +4103,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4136,10 +4146,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4450,7 +4465,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4467,10 +4482,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>815</v>
@@ -4511,10 +4526,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>860</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4535,10 +4550,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4569,16 +4584,16 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>862</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>863</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>254</v>
@@ -4599,7 +4614,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B5" s="8">
         <v>41838</v>
@@ -4608,7 +4623,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -4623,10 +4638,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>865</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>866</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4672,7 +4687,7 @@
         <v>855</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>847</v>
@@ -4687,14 +4702,14 @@
     </row>
     <row r="8" spans="1:14" ht="15">
       <c r="A8" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="4"/>
@@ -4709,7 +4724,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -4846,7 +4861,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>852</v>
@@ -4880,7 +4895,7 @@
         <v>7</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>852</v>
@@ -4942,7 +4957,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>852</v>
@@ -4976,7 +4991,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>852</v>
@@ -5010,7 +5025,7 @@
         <v>7</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>852</v>
@@ -5044,7 +5059,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>852</v>
@@ -5136,7 +5151,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>852</v>
@@ -5150,6 +5165,12 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="16" t="s">
+        <v>875</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>876</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -5201,7 +5222,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="4"/>
